--- a/SM/数据1.xlsx
+++ b/SM/数据1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cecil\SkyDrive\Documents\SM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dejin\Documents\GitHub\express-route-formulation\SM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1020,18 +1020,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.25" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1051,230 +1052,230 @@
       <c r="E1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="15">
-        <v>469.21</v>
-      </c>
-      <c r="E2" s="15">
-        <v>4360.93</v>
-      </c>
-      <c r="F2" s="23">
+        <v>12</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2415.15</v>
+      </c>
+      <c r="E2" s="10">
+        <v>21602.12</v>
+      </c>
+      <c r="F2" s="16">
+        <v>31.243419165900001</v>
+      </c>
+      <c r="G2" s="16">
+        <v>121.4813312057</v>
+      </c>
+      <c r="H2" s="23">
         <f>E2*D2*0.0001</f>
-        <v>204.61919653000001</v>
-      </c>
-      <c r="G2" s="16">
-        <v>31.765300155599999</v>
-      </c>
-      <c r="H2" s="16">
-        <v>119.9753817677</v>
+        <v>5217.2360118000006</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="10">
-        <v>884.45</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1057.8699999999999</v>
       </c>
       <c r="E3" s="15">
-        <v>8343.52</v>
-      </c>
-      <c r="F3" s="23">
+        <v>13015.7</v>
+      </c>
+      <c r="F3" s="16">
+        <v>31.311718847400002</v>
+      </c>
+      <c r="G3" s="16">
+        <v>120.6134634278</v>
+      </c>
+      <c r="H3" s="23">
         <f>E3*D3*0.0001</f>
-        <v>737.94262640000011</v>
-      </c>
-      <c r="G3" s="16">
-        <v>30.2531558465</v>
-      </c>
-      <c r="H3" s="16">
-        <v>120.2128814295</v>
+        <v>1376.8918558999999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="10">
-        <v>291.61</v>
+        <v>884.45</v>
       </c>
       <c r="E4" s="15">
-        <v>1803.15</v>
-      </c>
-      <c r="F4" s="23">
+        <v>8343.52</v>
+      </c>
+      <c r="F4" s="16">
+        <v>30.2531558465</v>
+      </c>
+      <c r="G4" s="16">
+        <v>120.2128814295</v>
+      </c>
+      <c r="H4" s="23">
         <f>E4*D4*0.0001</f>
-        <v>52.581657150000012</v>
-      </c>
-      <c r="G4" s="16">
-        <v>30.871663826900001</v>
-      </c>
-      <c r="H4" s="16">
-        <v>120.1307914862</v>
+        <v>737.94262640000011</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="15">
-        <v>482.69</v>
+        <v>818.78</v>
       </c>
       <c r="E5" s="15">
-        <v>2155.86</v>
-      </c>
-      <c r="F5" s="23">
+        <v>8011.78</v>
+      </c>
+      <c r="F5" s="16">
+        <v>32.051136808499997</v>
+      </c>
+      <c r="G5" s="16">
+        <v>118.7715804329</v>
+      </c>
+      <c r="H5" s="23">
         <f>E5*D5*0.0001</f>
-        <v>104.06120634000001</v>
-      </c>
-      <c r="G5" s="16">
-        <v>33.600232751199997</v>
-      </c>
-      <c r="H5" s="16">
-        <v>119.0237213107</v>
+        <v>655.98852283999997</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="10">
-        <v>455.85</v>
+        <v>766.31</v>
       </c>
       <c r="E6" s="15">
-        <v>3147.6</v>
-      </c>
-      <c r="F6" s="23">
+        <v>7128.87</v>
+      </c>
+      <c r="F6" s="16">
+        <v>29.878991455400001</v>
+      </c>
+      <c r="G6" s="16">
+        <v>121.5725615222</v>
+      </c>
+      <c r="H6" s="23">
         <f>E6*D6*0.0001</f>
-        <v>143.48334600000001</v>
-      </c>
-      <c r="G6" s="16">
-        <v>30.768069082099998</v>
-      </c>
-      <c r="H6" s="16">
-        <v>120.7538867439</v>
+        <v>546.29243697000004</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="10">
-        <v>542.80999999999995</v>
+        <v>18</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="15">
+        <v>648.41</v>
       </c>
       <c r="E7" s="15">
-        <v>2958.78</v>
-      </c>
-      <c r="F7" s="23">
+        <v>8070.18</v>
+      </c>
+      <c r="F7" s="16">
+        <v>27.996935624500001</v>
+      </c>
+      <c r="G7" s="16">
+        <v>120.68407084490001</v>
+      </c>
+      <c r="H7" s="23">
         <f>E7*D7*0.0001</f>
-        <v>160.60553718</v>
-      </c>
-      <c r="G7" s="16">
-        <v>29.096543065700001</v>
-      </c>
-      <c r="H7" s="16">
-        <v>119.646143193</v>
+        <v>523.27854138000009</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="10">
-        <v>212.2</v>
-      </c>
-      <c r="E8" s="15">
-        <v>983.08</v>
-      </c>
-      <c r="F8" s="23">
+        <v>13</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="15">
+        <v>859.1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4435.82</v>
+      </c>
+      <c r="F8" s="16">
+        <v>34.265901584700003</v>
+      </c>
+      <c r="G8" s="16">
+        <v>117.1815175871</v>
+      </c>
+      <c r="H8" s="23">
         <f>E8*D8*0.0001</f>
-        <v>20.860957600000003</v>
-      </c>
-      <c r="G8" s="16">
-        <v>28.450537196300001</v>
-      </c>
-      <c r="H8" s="16">
-        <v>119.9229925855</v>
+        <v>381.0812962</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="15">
-        <v>442.83</v>
+      <c r="B9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="10">
+        <v>919.73</v>
       </c>
       <c r="E9" s="15">
-        <v>1785.42</v>
-      </c>
-      <c r="F9" s="23">
+        <v>4003.86</v>
+      </c>
+      <c r="F9" s="16">
+        <v>32.470144837500001</v>
+      </c>
+      <c r="G9" s="16">
+        <v>119.9130892989</v>
+      </c>
+      <c r="H9" s="23">
         <f>E9*D9*0.0001</f>
-        <v>79.063753860000006</v>
-      </c>
-      <c r="G9" s="16">
-        <v>34.595211689199999</v>
-      </c>
-      <c r="H9" s="16">
-        <v>119.16745743520001</v>
+        <v>368.24701578000003</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1282,220 +1283,220 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="15">
-        <v>818.78</v>
+        <v>729.77</v>
       </c>
       <c r="E10" s="15">
-        <v>8011.78</v>
-      </c>
-      <c r="F10" s="23">
+        <v>5038.8900000000003</v>
+      </c>
+      <c r="F10" s="16">
+        <v>32.008566634499999</v>
+      </c>
+      <c r="G10" s="16">
+        <v>120.8673437309</v>
+      </c>
+      <c r="H10" s="23">
         <f>E10*D10*0.0001</f>
-        <v>655.98852283999997</v>
-      </c>
-      <c r="G10" s="16">
-        <v>32.051136808499997</v>
-      </c>
-      <c r="H10" s="16">
-        <v>118.7715804329</v>
+        <v>367.72307553000007</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="15">
-        <v>729.77</v>
+        <v>721.98</v>
       </c>
       <c r="E11" s="15">
-        <v>5038.8900000000003</v>
-      </c>
-      <c r="F11" s="23">
+        <v>3475.5</v>
+      </c>
+      <c r="F11" s="16">
+        <v>33.373771266200002</v>
+      </c>
+      <c r="G11" s="16">
+        <v>120.1423831563</v>
+      </c>
+      <c r="H11" s="23">
         <f>E11*D11*0.0001</f>
-        <v>367.72307553000007</v>
-      </c>
-      <c r="G11" s="16">
-        <v>32.008566634499999</v>
-      </c>
-      <c r="H11" s="16">
-        <v>120.8673437309</v>
+        <v>250.92414900000003</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="10">
-        <v>766.31</v>
+        <v>0</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="15">
+        <v>469.21</v>
       </c>
       <c r="E12" s="15">
-        <v>7128.87</v>
-      </c>
-      <c r="F12" s="23">
+        <v>4360.93</v>
+      </c>
+      <c r="F12" s="16">
+        <v>31.765300155599999</v>
+      </c>
+      <c r="G12" s="16">
+        <v>119.9753817677</v>
+      </c>
+      <c r="H12" s="23">
         <f>E12*D12*0.0001</f>
-        <v>546.29243697000004</v>
-      </c>
-      <c r="G12" s="16">
-        <v>29.878991455400001</v>
-      </c>
-      <c r="H12" s="16">
-        <v>121.5725615222</v>
+        <v>204.61919653000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="10">
-        <v>212.41</v>
+        <v>494.91</v>
       </c>
       <c r="E13" s="15">
-        <v>1056.57</v>
-      </c>
-      <c r="F13" s="23">
+        <v>3967.29</v>
+      </c>
+      <c r="F13" s="16">
+        <v>29.9961220223</v>
+      </c>
+      <c r="G13" s="16">
+        <v>120.58602239</v>
+      </c>
+      <c r="H13" s="23">
         <f>E13*D13*0.0001</f>
-        <v>22.442603369999997</v>
-      </c>
-      <c r="G13" s="16">
-        <v>28.951164411299999</v>
-      </c>
-      <c r="H13" s="16">
-        <v>118.8692581414</v>
+        <v>196.34514939000002</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="10">
-        <v>2415.15</v>
-      </c>
-      <c r="E14" s="10">
-        <v>21602.12</v>
-      </c>
-      <c r="F14" s="23">
+        <v>603.82000000000005</v>
+      </c>
+      <c r="E14" s="15">
+        <v>3153.34</v>
+      </c>
+      <c r="F14" s="16">
+        <v>33.945943367200002</v>
+      </c>
+      <c r="G14" s="16">
+        <v>118.29041769209999</v>
+      </c>
+      <c r="H14" s="23">
         <f>E14*D14*0.0001</f>
-        <v>5217.2360118000006</v>
-      </c>
-      <c r="G14" s="16">
-        <v>31.243419165900001</v>
-      </c>
-      <c r="H14" s="16">
-        <v>121.4813312057</v>
+        <v>190.40497588000002</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="10">
-        <v>494.91</v>
+        <v>542.80999999999995</v>
       </c>
       <c r="E15" s="15">
-        <v>3967.29</v>
-      </c>
-      <c r="F15" s="23">
+        <v>2958.78</v>
+      </c>
+      <c r="F15" s="16">
+        <v>29.096543065700001</v>
+      </c>
+      <c r="G15" s="16">
+        <v>119.646143193</v>
+      </c>
+      <c r="H15" s="23">
         <f>E15*D15*0.0001</f>
-        <v>196.34514939000002</v>
-      </c>
-      <c r="G15" s="16">
-        <v>29.9961220223</v>
-      </c>
-      <c r="H15" s="16">
-        <v>120.58602239</v>
+        <v>160.60553718</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="15">
-        <v>1057.8699999999999</v>
+        <v>447</v>
       </c>
       <c r="E16" s="15">
-        <v>13015.7</v>
-      </c>
-      <c r="F16" s="23">
+        <v>3252.01</v>
+      </c>
+      <c r="F16" s="16">
+        <v>32.402420502699997</v>
+      </c>
+      <c r="G16" s="16">
+        <v>119.4212903032</v>
+      </c>
+      <c r="H16" s="23">
         <f>E16*D16*0.0001</f>
-        <v>1376.8918558999999</v>
-      </c>
-      <c r="G16" s="16">
-        <v>31.311718847400002</v>
-      </c>
-      <c r="H16" s="16">
-        <v>120.6134634278</v>
+        <v>145.36484700000003</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="10">
-        <v>603.82000000000005</v>
+        <v>455.85</v>
       </c>
       <c r="E17" s="15">
-        <v>3153.34</v>
-      </c>
-      <c r="F17" s="23">
+        <v>3147.6</v>
+      </c>
+      <c r="F17" s="16">
+        <v>30.768069082099998</v>
+      </c>
+      <c r="G17" s="16">
+        <v>120.7538867439</v>
+      </c>
+      <c r="H17" s="23">
         <f>E17*D17*0.0001</f>
-        <v>190.40497588000002</v>
-      </c>
-      <c r="G17" s="16">
-        <v>33.945943367200002</v>
-      </c>
-      <c r="H17" s="16">
-        <v>118.29041769209999</v>
+        <v>143.48334600000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>22</v>
@@ -1509,74 +1510,74 @@
       <c r="E18" s="15">
         <v>3006.91</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="16">
+        <v>28.6619406744</v>
+      </c>
+      <c r="G18" s="16">
+        <v>121.4342045627</v>
+      </c>
+      <c r="H18" s="23">
         <f>E18*D18*0.0001</f>
         <v>139.34020939999999</v>
       </c>
-      <c r="G18" s="16">
-        <v>28.6619406744</v>
-      </c>
-      <c r="H18" s="16">
-        <v>121.4342045627</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
+        <v>3</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="10">
-        <v>919.73</v>
+      <c r="C19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="15">
+        <v>482.69</v>
       </c>
       <c r="E19" s="15">
-        <v>4003.86</v>
-      </c>
-      <c r="F19" s="23">
+        <v>2155.86</v>
+      </c>
+      <c r="F19" s="16">
+        <v>33.600232751199997</v>
+      </c>
+      <c r="G19" s="16">
+        <v>119.0237213107</v>
+      </c>
+      <c r="H19" s="23">
         <f>E19*D19*0.0001</f>
-        <v>368.24701578000003</v>
-      </c>
-      <c r="G19" s="16">
-        <v>32.470144837500001</v>
-      </c>
-      <c r="H19" s="16">
-        <v>119.9130892989</v>
+        <v>104.06120634000001</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="15">
-        <v>648.41</v>
+        <v>316.54000000000002</v>
       </c>
       <c r="E20" s="15">
-        <v>8070.18</v>
-      </c>
-      <c r="F20" s="23">
+        <v>2927.28</v>
+      </c>
+      <c r="F20" s="16">
+        <v>32.198761888999996</v>
+      </c>
+      <c r="G20" s="16">
+        <v>119.4492273404</v>
+      </c>
+      <c r="H20" s="23">
         <f>E20*D20*0.0001</f>
-        <v>523.27854138000009</v>
-      </c>
-      <c r="G20" s="16">
-        <v>27.996935624500001</v>
-      </c>
-      <c r="H20" s="16">
-        <v>120.68407084490001</v>
+        <v>92.660121120000014</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>23</v>
@@ -1590,128 +1591,128 @@
       <c r="E21" s="15">
         <v>1706.28</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="16">
+        <v>31.564373457599999</v>
+      </c>
+      <c r="G21" s="16">
+        <v>120.2988429766</v>
+      </c>
+      <c r="H21" s="23">
         <f>E21*D21*0.0001</f>
         <v>82.227339480000012</v>
       </c>
-      <c r="G21" s="16">
-        <v>31.564373457599999</v>
-      </c>
-      <c r="H21" s="16">
-        <v>120.2988429766</v>
-      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
-        <v>21</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="15">
-        <v>859.1</v>
-      </c>
-      <c r="E22" s="10">
-        <v>4435.82</v>
-      </c>
-      <c r="F22" s="23">
+        <v>442.83</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1785.42</v>
+      </c>
+      <c r="F22" s="16">
+        <v>34.595211689199999</v>
+      </c>
+      <c r="G22" s="16">
+        <v>119.16745743520001</v>
+      </c>
+      <c r="H22" s="23">
         <f>E22*D22*0.0001</f>
-        <v>381.0812962</v>
-      </c>
-      <c r="G22" s="16">
-        <v>34.265901584700003</v>
-      </c>
-      <c r="H22" s="16">
-        <v>117.1815175871</v>
+        <v>79.063753860000006</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
-        <v>22</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="15">
-        <v>721.98</v>
+        <v>2</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="10">
+        <v>291.61</v>
       </c>
       <c r="E23" s="15">
-        <v>3475.5</v>
-      </c>
-      <c r="F23" s="23">
+        <v>1803.15</v>
+      </c>
+      <c r="F23" s="16">
+        <v>30.871663826900001</v>
+      </c>
+      <c r="G23" s="16">
+        <v>120.1307914862</v>
+      </c>
+      <c r="H23" s="23">
         <f>E23*D23*0.0001</f>
-        <v>250.92414900000003</v>
-      </c>
-      <c r="G23" s="16">
-        <v>33.373771266200002</v>
-      </c>
-      <c r="H23" s="16">
-        <v>120.1423831563</v>
+        <v>52.581657150000012</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="15">
-        <v>447</v>
+        <v>11</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="10">
+        <v>212.41</v>
       </c>
       <c r="E24" s="15">
-        <v>3252.01</v>
-      </c>
-      <c r="F24" s="23">
+        <v>1056.57</v>
+      </c>
+      <c r="F24" s="16">
+        <v>28.951164411299999</v>
+      </c>
+      <c r="G24" s="16">
+        <v>118.8692581414</v>
+      </c>
+      <c r="H24" s="23">
         <f>E24*D24*0.0001</f>
-        <v>145.36484700000003</v>
-      </c>
-      <c r="G24" s="16">
-        <v>32.402420502699997</v>
-      </c>
-      <c r="H24" s="16">
-        <v>119.4212903032</v>
+        <v>22.442603369999997</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
-        <v>24</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="15">
-        <v>316.54000000000002</v>
+        <v>6</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="10">
+        <v>212.2</v>
       </c>
       <c r="E25" s="15">
-        <v>2927.28</v>
-      </c>
-      <c r="F25" s="23">
+        <v>983.08</v>
+      </c>
+      <c r="F25" s="16">
+        <v>28.450537196300001</v>
+      </c>
+      <c r="G25" s="16">
+        <v>119.9229925855</v>
+      </c>
+      <c r="H25" s="23">
         <f>E25*D25*0.0001</f>
-        <v>92.660121120000014</v>
-      </c>
-      <c r="G25" s="16">
-        <v>32.198761888999996</v>
-      </c>
-      <c r="H25" s="16">
-        <v>119.4492273404</v>
+        <v>20.860957600000003</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>10</v>
@@ -1725,19 +1726,19 @@
       <c r="E26" s="15">
         <v>930.85</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="16">
+        <v>30.029652521900001</v>
+      </c>
+      <c r="G26" s="16">
+        <v>122.1634419921</v>
+      </c>
+      <c r="H26" s="23">
         <f>E26*D26*0.0001</f>
         <v>10.630307000000002</v>
       </c>
-      <c r="G26" s="16">
-        <v>30.029652521900001</v>
-      </c>
-      <c r="H26" s="16">
-        <v>122.1634419921</v>
-      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F27" s="21"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
@@ -1823,7 +1824,10 @@
       <c r="D44" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:G1"/>
+  <sortState ref="A2:H44">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1834,20 +1838,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="24"/>
-    <col min="2" max="2" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="36" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
@@ -1866,19 +1870,19 @@
       <c r="E1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>65</v>
@@ -1892,20 +1896,20 @@
       <c r="E2" s="11">
         <v>1418.2</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="9">
+        <v>30.5322249331</v>
+      </c>
+      <c r="G2" s="9">
+        <v>117.0521232123</v>
+      </c>
+      <c r="H2" s="28">
         <f>E2*D2*0.0001</f>
         <v>75.802790000000002</v>
       </c>
-      <c r="G2" s="9">
-        <v>30.5322249331</v>
-      </c>
-      <c r="H2" s="9">
-        <v>117.0521232123</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>64</v>
@@ -1919,20 +1923,20 @@
       <c r="E3" s="11">
         <v>1007.85</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="9">
+        <v>32.923143080300001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>117.3506445487</v>
+      </c>
+      <c r="H3" s="28">
         <f>E3*D3*0.0001</f>
         <v>32.452770000000001</v>
       </c>
-      <c r="G3" s="9">
-        <v>32.923143080300001</v>
-      </c>
-      <c r="H3" s="9">
-        <v>117.3506445487</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>59</v>
@@ -1946,20 +1950,20 @@
       <c r="E4" s="11">
         <v>3636.31</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="9">
+        <v>40.641370407399997</v>
+      </c>
+      <c r="G4" s="9">
+        <v>109.83968143689999</v>
+      </c>
+      <c r="H4" s="28">
         <f>E4*D4*0.0001</f>
         <v>100.58760722000001</v>
       </c>
-      <c r="G4" s="9">
-        <v>40.641370407399997</v>
-      </c>
-      <c r="H4" s="9">
-        <v>109.83968143689999</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>80</v>
@@ -1973,20 +1977,20 @@
       <c r="E5" s="11">
         <v>735</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="9">
+        <v>21.492225000000001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>109.115442</v>
+      </c>
+      <c r="H5" s="28">
         <f>E5*D5*0.0001</f>
         <v>11.687970000000002</v>
       </c>
-      <c r="G5" s="9">
-        <v>39.926552192400003</v>
-      </c>
-      <c r="H5" s="9">
-        <v>116.38910039149999</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>35</v>
@@ -2000,20 +2004,20 @@
       <c r="E6" s="11">
         <v>19500.599999999999</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="9">
+        <v>39.908535056600002</v>
+      </c>
+      <c r="G6" s="9">
+        <v>116.39748112789999</v>
+      </c>
+      <c r="H6" s="28">
         <f>E6*D6*0.0001</f>
         <v>4182.4886880000004</v>
       </c>
-      <c r="G6" s="9">
-        <v>39.908535056600002</v>
-      </c>
-      <c r="H6" s="9">
-        <v>116.39748112789999</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
@@ -2027,20 +2031,20 @@
       <c r="E7" s="11">
         <v>2264.9</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="9">
+        <v>29.0063897944</v>
+      </c>
+      <c r="G7" s="9">
+        <v>111.6471596128</v>
+      </c>
+      <c r="H7" s="28">
         <f>E7*D7*0.0001</f>
         <v>131.47291520000002</v>
       </c>
-      <c r="G7" s="9">
-        <v>29.0063897944</v>
-      </c>
-      <c r="H7" s="9">
-        <v>111.6471596128</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>41</v>
@@ -2054,20 +2058,20 @@
       <c r="E8" s="11">
         <v>7650.8</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="9">
+        <v>38.942612094099999</v>
+      </c>
+      <c r="G8" s="9">
+        <v>121.58700532189999</v>
+      </c>
+      <c r="H8" s="28">
         <f>E8*D8*0.0001</f>
         <v>452.46831200000003</v>
       </c>
-      <c r="G8" s="9">
-        <v>38.942612094099999</v>
-      </c>
-      <c r="H8" s="9">
-        <v>121.58700532189999</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>60</v>
@@ -2081,20 +2085,20 @@
       <c r="E9" s="11">
         <v>1022.6</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="9">
+        <v>40.1227419019</v>
+      </c>
+      <c r="G9" s="9">
+        <v>124.3320891603</v>
+      </c>
+      <c r="H9" s="28">
         <f>E9*D9*0.0001</f>
         <v>24.491270000000004</v>
       </c>
-      <c r="G9" s="9">
-        <v>40.1227419019</v>
-      </c>
-      <c r="H9" s="9">
-        <v>124.3320891603</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>45</v>
@@ -2108,20 +2112,20 @@
       <c r="E10" s="11">
         <v>4678.5</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="9">
+        <v>26.041356887300001</v>
+      </c>
+      <c r="G10" s="9">
+        <v>119.323642644</v>
+      </c>
+      <c r="H10" s="28">
         <f>E10*D10*0.0001</f>
         <v>311.34949649999999</v>
       </c>
-      <c r="G10" s="9">
-        <v>26.041356887300001</v>
-      </c>
-      <c r="H10" s="9">
-        <v>119.323642644</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>68</v>
@@ -2135,20 +2139,20 @@
       <c r="E11" s="11">
         <v>1673.31</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="9">
+        <v>25.839197330699999</v>
+      </c>
+      <c r="G11" s="9">
+        <v>114.92940003859999</v>
+      </c>
+      <c r="H11" s="28">
         <f>E11*D11*0.0001</f>
         <v>141.86489510999999</v>
       </c>
-      <c r="G11" s="9">
-        <v>25.839197330699999</v>
-      </c>
-      <c r="H11" s="9">
-        <v>114.92940003859999</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>53</v>
@@ -2162,20 +2166,20 @@
       <c r="E12" s="11">
         <v>15420.14</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="9">
+        <v>23.1139597574</v>
+      </c>
+      <c r="G12" s="9">
+        <v>113.30116726529999</v>
+      </c>
+      <c r="H12" s="28">
         <f>E12*D12*0.0001</f>
         <v>1839.12925752</v>
       </c>
-      <c r="G12" s="9">
-        <v>23.1139597574</v>
-      </c>
-      <c r="H12" s="9">
-        <v>113.30116726529999</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>79</v>
@@ -2189,20 +2193,20 @@
       <c r="E13" s="11">
         <v>1567.9</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="9">
+        <v>25.256822241599998</v>
+      </c>
+      <c r="G13" s="9">
+        <v>110.25442785920001</v>
+      </c>
+      <c r="H13" s="28">
         <f>E13*D13*0.0001</f>
         <v>76.521359500000017</v>
       </c>
-      <c r="G13" s="9">
-        <v>25.256822241599998</v>
-      </c>
-      <c r="H13" s="9">
-        <v>110.25442785920001</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>43</v>
@@ -2216,20 +2220,20 @@
       <c r="E14" s="11">
         <v>5141.5</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="9">
+        <v>45.7675790702</v>
+      </c>
+      <c r="G14" s="9">
+        <v>126.65104789660001</v>
+      </c>
+      <c r="H14" s="28">
         <f>E14*D14*0.0001</f>
         <v>511.68207999999998</v>
       </c>
-      <c r="G14" s="9">
-        <v>45.7675790702</v>
-      </c>
-      <c r="H14" s="9">
-        <v>126.65104789660001</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>56</v>
@@ -2243,20 +2247,20 @@
       <c r="E15" s="11">
         <v>904.64</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="9">
+        <v>20.016290314399999</v>
+      </c>
+      <c r="G15" s="9">
+        <v>110.3242634105</v>
+      </c>
+      <c r="H15" s="28">
         <f>E15*D15*0.0001</f>
         <v>19.64063904</v>
       </c>
-      <c r="G15" s="9">
-        <v>20.016290314399999</v>
-      </c>
-      <c r="H15" s="9">
-        <v>110.3242634105</v>
-      </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>0</v>
@@ -2270,20 +2274,20 @@
       <c r="E16" s="12">
         <v>8343.52</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="9">
+        <v>30.2531558465</v>
+      </c>
+      <c r="G16" s="9">
+        <v>120.2128814295</v>
+      </c>
+      <c r="H16" s="28">
         <f>E16*D16*0.0001</f>
         <v>737.94262640000011</v>
       </c>
-      <c r="G16" s="9">
-        <v>30.2531558465</v>
-      </c>
-      <c r="H16" s="9">
-        <v>120.2128814295</v>
-      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>44</v>
@@ -2297,20 +2301,20 @@
       <c r="E17" s="11">
         <v>4672.8999999999996</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="9">
+        <v>31.8610386746</v>
+      </c>
+      <c r="G17" s="9">
+        <v>117.2761652805</v>
+      </c>
+      <c r="H17" s="28">
         <f>E17*D17*0.0001</f>
         <v>355.65441900000002</v>
       </c>
-      <c r="G17" s="9">
-        <v>31.8610386746</v>
-      </c>
-      <c r="H17" s="9">
-        <v>117.2761652805</v>
-      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="27">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>38</v>
@@ -2324,20 +2328,20 @@
       <c r="E18" s="11">
         <v>2710.39</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="9">
+        <v>40.8226263667</v>
+      </c>
+      <c r="G18" s="9">
+        <v>111.653697666</v>
+      </c>
+      <c r="H18" s="28">
         <f>E18*D18*0.0001</f>
         <v>81.341514290000006</v>
       </c>
-      <c r="G18" s="9">
-        <v>40.8226263667</v>
-      </c>
-      <c r="H18" s="9">
-        <v>111.653697666</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="27">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>76</v>
@@ -2351,20 +2355,20 @@
       <c r="E19" s="11">
         <v>2678.4</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="9">
+        <v>23.107779866400001</v>
+      </c>
+      <c r="G19" s="9">
+        <v>114.4041104496</v>
+      </c>
+      <c r="H19" s="28">
         <f>E19*D19*0.0001</f>
         <v>125.88480000000001</v>
       </c>
-      <c r="G19" s="9">
-        <v>23.107779866400001</v>
-      </c>
-      <c r="H19" s="9">
-        <v>114.4041104496</v>
-      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="27">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>62</v>
@@ -2378,20 +2382,20 @@
       <c r="E20" s="11">
         <v>2617.4</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="9">
+        <v>43.866251161699999</v>
+      </c>
+      <c r="G20" s="9">
+        <v>126.5579717688</v>
+      </c>
+      <c r="H20" s="28">
         <f>E20*D20*0.0001</f>
         <v>115.55035780000003</v>
       </c>
-      <c r="G20" s="9">
-        <v>43.866251161699999</v>
-      </c>
-      <c r="H20" s="9">
-        <v>126.5579717688</v>
-      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="27">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>48</v>
@@ -2405,20 +2409,20 @@
       <c r="E21" s="11">
         <v>5230.1899999999996</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="9">
+        <v>36.676525963099998</v>
+      </c>
+      <c r="G21" s="9">
+        <v>117.01851743740001</v>
+      </c>
+      <c r="H21" s="28">
         <f>E21*D21*0.0001</f>
         <v>320.81985459999999</v>
       </c>
-      <c r="G21" s="9">
-        <v>36.676525963099998</v>
-      </c>
-      <c r="H21" s="9">
-        <v>117.01851743740001</v>
-      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>70</v>
@@ -2432,20 +2436,20 @@
       <c r="E22" s="11">
         <v>3501.54</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="9">
+        <v>35.396368299700001</v>
+      </c>
+      <c r="G22" s="9">
+        <v>116.5942250393</v>
+      </c>
+      <c r="H22" s="28">
         <f>E22*D22*0.0001</f>
         <v>287.32936932000001</v>
       </c>
-      <c r="G22" s="9">
-        <v>35.396368299700001</v>
-      </c>
-      <c r="H22" s="9">
-        <v>116.5942250393</v>
-      </c>
     </row>
     <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>6</v>
@@ -2459,20 +2463,20 @@
       <c r="E23" s="12">
         <v>2958.78</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="9">
+        <v>29.096543065700001</v>
+      </c>
+      <c r="G23" s="9">
+        <v>119.646143193</v>
+      </c>
+      <c r="H23" s="28">
         <f>E23*D23*0.0001</f>
         <v>160.60553718</v>
       </c>
-      <c r="G23" s="9">
-        <v>29.096543065700001</v>
-      </c>
-      <c r="H23" s="9">
-        <v>119.646143193</v>
-      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>61</v>
@@ -2486,20 +2490,20 @@
       <c r="E24" s="11">
         <v>1344.9</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="9">
+        <v>41.125230377900003</v>
+      </c>
+      <c r="G24" s="9">
+        <v>121.14114914149999</v>
+      </c>
+      <c r="H24" s="28">
         <f>E24*D24*0.0001</f>
         <v>41.409471000000003</v>
       </c>
-      <c r="G24" s="9">
-        <v>41.125230377900003</v>
-      </c>
-      <c r="H24" s="9">
-        <v>121.14114914149999</v>
-      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>67</v>
@@ -2513,20 +2517,20 @@
       <c r="E25" s="11">
         <v>1601.73</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="9">
+        <v>29.713872981800002</v>
+      </c>
+      <c r="G25" s="9">
+        <v>115.9932774138</v>
+      </c>
+      <c r="H25" s="28">
         <f>E25*D25*0.0001</f>
         <v>76.71325662000001</v>
       </c>
-      <c r="G25" s="9">
-        <v>29.713872981800002</v>
-      </c>
-      <c r="H25" s="9">
-        <v>115.9932774138</v>
-      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>71</v>
@@ -2540,20 +2544,20 @@
       <c r="E26" s="11">
         <v>3140.8</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="9">
+        <v>34.651067454500001</v>
+      </c>
+      <c r="G26" s="9">
+        <v>112.4411487699</v>
+      </c>
+      <c r="H26" s="28">
         <f>E26*D26*0.0001</f>
         <v>207.77020160000001</v>
       </c>
-      <c r="G26" s="9">
-        <v>34.651067454500001</v>
-      </c>
-      <c r="H26" s="9">
-        <v>112.4411487699</v>
-      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>63</v>
@@ -2567,20 +2571,20 @@
       <c r="E27" s="11">
         <v>1092.5999999999999</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="9">
+        <v>44.5821525327</v>
+      </c>
+      <c r="G27" s="9">
+        <v>129.60166088299999</v>
+      </c>
+      <c r="H27" s="28">
         <f>E27*D27*0.0001</f>
         <v>30.407057999999996</v>
       </c>
-      <c r="G27" s="9">
-        <v>44.5821525327</v>
-      </c>
-      <c r="H27" s="9">
-        <v>129.60166088299999</v>
-      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>47</v>
@@ -2594,20 +2598,20 @@
       <c r="E28" s="11">
         <v>3336.03</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="9">
+        <v>28.683673584499999</v>
+      </c>
+      <c r="G28" s="9">
+        <v>115.8869980488</v>
+      </c>
+      <c r="H28" s="28">
         <f>E28*D28*0.0001</f>
         <v>172.94980329000001</v>
       </c>
-      <c r="G28" s="9">
-        <v>28.683673584499999</v>
-      </c>
-      <c r="H28" s="9">
-        <v>115.8869980488</v>
-      </c>
     </row>
     <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="27">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>11</v>
@@ -2621,20 +2625,20 @@
       <c r="E29" s="12">
         <v>8011.78</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="9">
+        <v>32.051136808499997</v>
+      </c>
+      <c r="G29" s="9">
+        <v>118.7715804329</v>
+      </c>
+      <c r="H29" s="28">
         <f>E29*D29*0.0001</f>
         <v>655.98852283999997</v>
       </c>
-      <c r="G29" s="9">
-        <v>32.051136808499997</v>
-      </c>
-      <c r="H29" s="9">
-        <v>118.7715804329</v>
-      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="27">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>55</v>
@@ -2648,20 +2652,20 @@
       <c r="E30" s="11">
         <v>2780</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="9">
+        <v>22.8007953997</v>
+      </c>
+      <c r="G30" s="9">
+        <v>108.2906566832</v>
+      </c>
+      <c r="H30" s="28">
         <f>E30*D30*0.0001</f>
         <v>198.35300000000001</v>
       </c>
-      <c r="G30" s="9">
-        <v>22.8007953997</v>
-      </c>
-      <c r="H30" s="9">
-        <v>108.2906566832</v>
-      </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="27">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>1</v>
@@ -2675,20 +2679,20 @@
       <c r="E31" s="12">
         <v>7128.87</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="9">
+        <v>29.878991455400001</v>
+      </c>
+      <c r="G31" s="9">
+        <v>121.5725615222</v>
+      </c>
+      <c r="H31" s="28">
         <f>E31*D31*0.0001</f>
         <v>546.29243697000004</v>
       </c>
-      <c r="G31" s="9">
-        <v>29.878991455400001</v>
-      </c>
-      <c r="H31" s="9">
-        <v>121.5725615222</v>
-      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>72</v>
@@ -2702,20 +2706,20 @@
       <c r="E32" s="11">
         <v>1556.9</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="9">
+        <v>33.7390629219</v>
+      </c>
+      <c r="G32" s="9">
+        <v>113.2943824667</v>
+      </c>
+      <c r="H32" s="28">
         <f>E32*D32*0.0001</f>
         <v>77.175533000000016</v>
       </c>
-      <c r="G32" s="9">
-        <v>33.7390629219</v>
-      </c>
-      <c r="H32" s="9">
-        <v>113.2943824667</v>
-      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="27">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>58</v>
@@ -2729,20 +2733,20 @@
       <c r="E33" s="11">
         <v>1168.75</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="9">
+        <v>39.9397048545</v>
+      </c>
+      <c r="G33" s="9">
+        <v>119.5978001971</v>
+      </c>
+      <c r="H33" s="28">
         <f>E33*D33*0.0001</f>
         <v>35.816343750000001</v>
       </c>
-      <c r="G33" s="9">
-        <v>39.9397048545</v>
-      </c>
-      <c r="H33" s="9">
-        <v>119.5978001971</v>
-      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="27">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>49</v>
@@ -2756,20 +2760,20 @@
       <c r="E34" s="11">
         <v>8006.6</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="9">
+        <v>36.098953535900002</v>
+      </c>
+      <c r="G34" s="9">
+        <v>120.3780044121</v>
+      </c>
+      <c r="H34" s="28">
         <f>E34*D34*0.0001</f>
         <v>717.71963060000007</v>
       </c>
-      <c r="G34" s="9">
-        <v>36.098953535900002</v>
-      </c>
-      <c r="H34" s="9">
-        <v>120.3780044121</v>
-      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="27">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>66</v>
@@ -2783,20 +2787,20 @@
       <c r="E35" s="11">
         <v>5218</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="9">
+        <v>24.895732065299999</v>
+      </c>
+      <c r="G35" s="9">
+        <v>118.5938319312</v>
+      </c>
+      <c r="H35" s="28">
         <f>E35*D35*0.0001</f>
         <v>436.22480000000002</v>
       </c>
-      <c r="G35" s="9">
-        <v>24.895732065299999</v>
-      </c>
-      <c r="H35" s="9">
-        <v>118.5938319312</v>
-      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>81</v>
@@ -2810,20 +2814,20 @@
       <c r="E36" s="11">
         <v>373.49</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="9">
+        <v>18.252025572200001</v>
+      </c>
+      <c r="G36" s="9">
+        <v>109.516223333</v>
+      </c>
+      <c r="H36" s="28">
         <f>E36*D36*0.0001</f>
         <v>2.7339468</v>
       </c>
-      <c r="G36" s="9">
-        <v>18.252025572200001</v>
-      </c>
-      <c r="H36" s="9">
-        <v>109.516223333</v>
-      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>46</v>
@@ -2837,20 +2841,20 @@
       <c r="E37" s="11">
         <v>3018.16</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="9">
+        <v>24.4829694847</v>
+      </c>
+      <c r="G37" s="9">
+        <v>118.0974208097</v>
+      </c>
+      <c r="H37" s="28">
         <f>E37*D37*0.0001</f>
         <v>112.57736799999999</v>
       </c>
-      <c r="G37" s="9">
-        <v>24.4829694847</v>
-      </c>
-      <c r="H37" s="9">
-        <v>118.0974208097</v>
-      </c>
     </row>
     <row r="38" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="27">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>24</v>
@@ -2864,20 +2868,20 @@
       <c r="E38" s="12">
         <v>21602.12</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="9">
+        <v>31.243419165900001</v>
+      </c>
+      <c r="G38" s="9">
+        <v>121.4813312057</v>
+      </c>
+      <c r="H38" s="28">
         <f>E38*D38*0.0001</f>
         <v>5217.2360118000006</v>
       </c>
-      <c r="G38" s="9">
-        <v>31.243419165900001</v>
-      </c>
-      <c r="H38" s="9">
-        <v>121.4813312057</v>
-      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>78</v>
@@ -2891,20 +2895,20 @@
       <c r="E39" s="11">
         <v>1010.1</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="9">
+        <v>24.797296104299999</v>
+      </c>
+      <c r="G39" s="9">
+        <v>113.58790502950001</v>
+      </c>
+      <c r="H39" s="28">
         <f>E39*D39*0.0001</f>
         <v>29.219162699999998</v>
       </c>
-      <c r="G39" s="9">
-        <v>24.797296104299999</v>
-      </c>
-      <c r="H39" s="9">
-        <v>113.58790502950001</v>
-      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>54</v>
@@ -2918,20 +2922,20 @@
       <c r="E40" s="11">
         <v>14500.23</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="9">
+        <v>22.539950277399999</v>
+      </c>
+      <c r="G40" s="9">
+        <v>114.0194806145</v>
+      </c>
+      <c r="H40" s="28">
         <f>E40*D40*0.0001</f>
         <v>1541.2149464700001</v>
       </c>
-      <c r="G40" s="9">
-        <v>22.539950277399999</v>
-      </c>
-      <c r="H40" s="9">
-        <v>114.0194806145</v>
-      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="27">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>40</v>
@@ -2945,20 +2949,20 @@
       <c r="E41" s="11">
         <v>7223.7</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="9">
+        <v>41.802983943599997</v>
+      </c>
+      <c r="G41" s="9">
+        <v>123.4261525332</v>
+      </c>
+      <c r="H41" s="28">
         <f>E41*D41*0.0001</f>
         <v>596.46090900000002</v>
       </c>
-      <c r="G41" s="9">
-        <v>41.802983943599997</v>
-      </c>
-      <c r="H41" s="9">
-        <v>123.4261525332</v>
-      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="27">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>37</v>
@@ -2972,20 +2976,20 @@
       <c r="E42" s="11">
         <v>4863.6000000000004</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="9">
+        <v>38.043078326600003</v>
+      </c>
+      <c r="G42" s="9">
+        <v>114.515560811</v>
+      </c>
+      <c r="H42" s="28">
         <f>E42*D42*0.0001</f>
         <v>510.66827280000001</v>
       </c>
-      <c r="G42" s="9">
-        <v>38.043078326600003</v>
-      </c>
-      <c r="H42" s="9">
-        <v>114.515560811</v>
-      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="27">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>39</v>
@@ -2999,20 +3003,20 @@
       <c r="E43" s="11">
         <v>2412.87</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="9">
+        <v>37.884036877500002</v>
+      </c>
+      <c r="G43" s="9">
+        <v>112.5444825181</v>
+      </c>
+      <c r="H43" s="28">
         <f>E43*D43*0.0001</f>
         <v>103.215098703</v>
       </c>
-      <c r="G43" s="9">
-        <v>37.884036877500002</v>
-      </c>
-      <c r="H43" s="9">
-        <v>112.5444825181</v>
-      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="27">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>57</v>
@@ -3026,20 +3030,20 @@
       <c r="E44" s="11">
         <v>6121.2</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="9">
+        <v>39.644413595099998</v>
+      </c>
+      <c r="G44" s="9">
+        <v>118.1769834366</v>
+      </c>
+      <c r="H44" s="28">
         <f>E44*D44*0.0001</f>
         <v>457.49848800000001</v>
       </c>
-      <c r="G44" s="9">
-        <v>39.644413595099998</v>
-      </c>
-      <c r="H44" s="9">
-        <v>118.1769834366</v>
-      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="27">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>36</v>
@@ -3053,20 +3057,20 @@
       <c r="E45" s="11">
         <v>14370.16</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="9">
+        <v>39.137996570699997</v>
+      </c>
+      <c r="G45" s="9">
+        <v>117.2042832532</v>
+      </c>
+      <c r="H45" s="28">
         <f>E45*D45*0.0001</f>
         <v>2115.5893253600002</v>
       </c>
-      <c r="G45" s="9">
-        <v>39.137996570699997</v>
-      </c>
-      <c r="H45" s="9">
-        <v>117.2042832532</v>
-      </c>
     </row>
     <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="27">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>2</v>
@@ -3080,20 +3084,20 @@
       <c r="E46" s="12">
         <v>4003.86</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="9">
+        <v>27.996935624500001</v>
+      </c>
+      <c r="G46" s="9">
+        <v>120.68407084490001</v>
+      </c>
+      <c r="H46" s="28">
         <f>E46*D46*0.0001</f>
         <v>368.24701578000003</v>
       </c>
-      <c r="G46" s="9">
-        <v>27.996935624500001</v>
-      </c>
-      <c r="H46" s="9">
-        <v>120.68407084490001</v>
-      </c>
     </row>
     <row r="47" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="27">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>12</v>
@@ -3107,20 +3111,20 @@
       <c r="E47" s="12">
         <v>8070.18</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="9">
+        <v>31.564373457599999</v>
+      </c>
+      <c r="G47" s="9">
+        <v>120.2988429766</v>
+      </c>
+      <c r="H47" s="28">
         <f>E47*D47*0.0001</f>
         <v>523.27854138000009</v>
       </c>
-      <c r="G47" s="9">
-        <v>31.564373457599999</v>
-      </c>
-      <c r="H47" s="9">
-        <v>120.2988429766</v>
-      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="27">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>51</v>
@@ -3134,20 +3138,20 @@
       <c r="E48" s="11">
         <v>9051.27</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="9">
+        <v>30.575314514999999</v>
+      </c>
+      <c r="G48" s="9">
+        <v>114.3096385736</v>
+      </c>
+      <c r="H48" s="28">
         <f>E48*D48*0.0001</f>
         <v>925.03979400000014</v>
       </c>
-      <c r="G48" s="9">
-        <v>30.575314514999999</v>
-      </c>
-      <c r="H48" s="9">
-        <v>114.3096385736</v>
-      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="27">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>123</v>
@@ -3161,20 +3165,20 @@
       <c r="E49" s="11">
         <v>2814</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="9">
+        <v>32.009048376000003</v>
+      </c>
+      <c r="G49" s="9">
+        <v>112.1225433136</v>
+      </c>
+      <c r="H49" s="28">
         <f>E49*D49*0.0001</f>
         <v>157.33074000000002</v>
       </c>
-      <c r="G49" s="9">
-        <v>32.009048376000003</v>
-      </c>
-      <c r="H49" s="9">
-        <v>112.1225433136</v>
-      </c>
     </row>
     <row r="50" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="27">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>13</v>
@@ -3188,20 +3192,20 @@
       <c r="E50" s="12">
         <v>4435.82</v>
       </c>
-      <c r="F50" s="28">
+      <c r="F50" s="9">
+        <v>34.265901584700003</v>
+      </c>
+      <c r="G50" s="9">
+        <v>117.1815175871</v>
+      </c>
+      <c r="H50" s="28">
         <f>E50*D50*0.0001</f>
         <v>381.0812962</v>
       </c>
-      <c r="G50" s="9">
-        <v>34.265901584700003</v>
-      </c>
-      <c r="H50" s="9">
-        <v>117.1815175871</v>
-      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>69</v>
@@ -3215,20 +3219,20 @@
       <c r="E51" s="11">
         <v>5613.87</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="9">
+        <v>37.5302949915</v>
+      </c>
+      <c r="G51" s="9">
+        <v>121.3031333512</v>
+      </c>
+      <c r="H51" s="28">
         <f>E51*D51*0.0001</f>
         <v>392.37021591000001</v>
       </c>
-      <c r="G51" s="9">
-        <v>37.5302949915</v>
-      </c>
-      <c r="H51" s="9">
-        <v>121.3031333512</v>
-      </c>
     </row>
     <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>20</v>
@@ -3242,20 +3246,20 @@
       <c r="E52" s="12">
         <v>3252.01</v>
       </c>
-      <c r="F52" s="28">
+      <c r="F52" s="9">
+        <v>32.402420502699997</v>
+      </c>
+      <c r="G52" s="9">
+        <v>119.4212903032</v>
+      </c>
+      <c r="H52" s="28">
         <f>E52*D52*0.0001</f>
         <v>145.36484700000003</v>
       </c>
-      <c r="G52" s="9">
-        <v>32.402420502699997</v>
-      </c>
-      <c r="H52" s="9">
-        <v>119.4212903032</v>
-      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>73</v>
@@ -3269,20 +3273,20 @@
       <c r="E53" s="11">
         <v>2818.07</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="9">
+        <v>30.727066846100001</v>
+      </c>
+      <c r="G53" s="9">
+        <v>111.3043661944</v>
+      </c>
+      <c r="H53" s="28">
         <f>E53*D53*0.0001</f>
         <v>115.49296281000001</v>
       </c>
-      <c r="G53" s="9">
-        <v>30.727066846100001</v>
-      </c>
-      <c r="H53" s="9">
-        <v>111.3043661944</v>
-      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>74</v>
@@ -3296,20 +3300,20 @@
       <c r="E54" s="11">
         <v>2430.52</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="9">
+        <v>29.371767151</v>
+      </c>
+      <c r="G54" s="9">
+        <v>113.13978237409999</v>
+      </c>
+      <c r="H54" s="28">
         <f>E54*D54*0.0001</f>
         <v>135.11260680000001</v>
       </c>
-      <c r="G54" s="9">
-        <v>29.371767151</v>
-      </c>
-      <c r="H54" s="9">
-        <v>113.13978237409999</v>
-      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>77</v>
@@ -3323,20 +3327,20 @@
       <c r="E55" s="11">
         <v>2060.0100000000002</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="9">
+        <v>21.251543418899999</v>
+      </c>
+      <c r="G55" s="9">
+        <v>110.35852156990001</v>
+      </c>
+      <c r="H55" s="28">
         <f>E55*D55*0.0001</f>
         <v>147.64297671000003</v>
       </c>
-      <c r="G55" s="9">
-        <v>21.251543418899999</v>
-      </c>
-      <c r="H55" s="9">
-        <v>110.35852156990001</v>
-      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>42</v>
@@ -3350,20 +3354,20 @@
       <c r="E56" s="11">
         <v>5003.17</v>
       </c>
-      <c r="F56" s="28">
+      <c r="F56" s="9">
+        <v>43.892258591800001</v>
+      </c>
+      <c r="G56" s="9">
+        <v>125.3071703359</v>
+      </c>
+      <c r="H56" s="28">
         <f>E56*D56*0.0001</f>
         <v>386.69500929999998</v>
       </c>
-      <c r="G56" s="9">
-        <v>43.892258591800001</v>
-      </c>
-      <c r="H56" s="9">
-        <v>125.3071703359</v>
-      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>52</v>
@@ -3377,20 +3381,20 @@
       <c r="E57" s="11">
         <v>7153.13</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F57" s="9">
+        <v>28.207792230500001</v>
+      </c>
+      <c r="G57" s="9">
+        <v>112.9727381208</v>
+      </c>
+      <c r="H57" s="28">
         <f>E57*D57*0.0001</f>
         <v>516.55612982000002</v>
       </c>
-      <c r="G57" s="9">
-        <v>28.207792230500001</v>
-      </c>
-      <c r="H57" s="9">
-        <v>112.9727381208</v>
-      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>50</v>
@@ -3404,22 +3408,29 @@
       <c r="E58" s="11">
         <v>6202</v>
       </c>
-      <c r="F58" s="28">
+      <c r="F58" s="9">
+        <v>34.7502826773</v>
+      </c>
+      <c r="G58" s="9">
+        <v>113.6432394805</v>
+      </c>
+      <c r="H58" s="28">
         <f>E58*D58*0.0001</f>
         <v>570.03822400000001</v>
       </c>
-      <c r="G58" s="9">
-        <v>34.7502826773</v>
-      </c>
-      <c r="H58" s="9">
-        <v>113.6432394805</v>
-      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F59" s="25"/>
+      <c r="H59" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G58">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:H59">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
